--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="2415" windowWidth="22695" windowHeight="8325" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="1500" windowWidth="24765" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -354,11 +354,13 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -367,7 +369,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -395,6 +397,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1500" windowWidth="24765" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="2790" windowWidth="9270" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2790" windowWidth="9270" windowHeight="7230"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="10875" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -369,7 +371,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="10875" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="945" windowWidth="17175" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="10875" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2790" windowWidth="11805" windowHeight="5085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>

--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2790" windowWidth="11805" windowHeight="5085" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="3060" windowWidth="8790" windowHeight="5160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -371,7 +371,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -395,9 +395,14 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3060" windowWidth="8790" windowHeight="5160" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="2130" windowWidth="12240" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -371,7 +373,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -395,7 +397,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -408,4 +410,30 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2130" windowWidth="12240" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="16650" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle4" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="MPT" sheetId="1" r:id="rId1"/>
+    <sheet name="meRC" sheetId="2" r:id="rId2"/>
+    <sheet name="meTE" sheetId="3" r:id="rId3"/>
+    <sheet name="meAT" sheetId="4" r:id="rId4"/>
+    <sheet name="meCharts" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -373,7 +373,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -421,7 +421,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -430,10 +432,12 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="16650" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="14670" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="meTE" sheetId="3" r:id="rId3"/>
     <sheet name="meAT" sheetId="4" r:id="rId4"/>
     <sheet name="meCharts" sheetId="5" r:id="rId5"/>
+    <sheet name="mptPrCharts" sheetId="6" r:id="rId6"/>
+    <sheet name="mptPfCharts" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -356,7 +358,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -432,7 +434,35 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle7"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="14670" windowHeight="12630"/>
+    <workbookView xWindow="480" yWindow="2130" windowWidth="7725" windowHeight="12300" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="meCharts" sheetId="5" r:id="rId5"/>
     <sheet name="mptPrCharts" sheetId="6" r:id="rId6"/>
     <sheet name="mptPfCharts" sheetId="7" r:id="rId7"/>
+    <sheet name="repCharts" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -358,7 +359,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -470,4 +471,17 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle8"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Projectboard/Projectboard/Projectboard.xlsx
+++ b/Projectboard/Projectboard/Projectboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2130" windowWidth="7725" windowHeight="12300" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="4890" yWindow="2130" windowWidth="20220" windowHeight="8580" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MPT" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,14 +403,41 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="9" width="35.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="7.25" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -415,9 +445,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -430,9 +460,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -445,9 +488,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -456,32 +499,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle7"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <dataConsolidate/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle8"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>